--- a/WAN and Activity Analysis.xlsx
+++ b/WAN and Activity Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e788a6c2c51d51d/Desktop/Internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{10A6F93B-85C1-4D27-9C0D-4D2543B0C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387A1AA5-5FFE-4C17-8026-1B9E6AE9B6B9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{10A6F93B-85C1-4D27-9C0D-4D2543B0C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D57C05D3-BEB0-43F1-AB22-929438154D64}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCA2CD40-66EB-4CB3-9F12-0F138EE9EAC1}"/>
+    <workbookView xWindow="100" yWindow="170" windowWidth="7530" windowHeight="10170" xr2:uid="{DCA2CD40-66EB-4CB3-9F12-0F138EE9EAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="211">
   <si>
     <t>Site</t>
   </si>
@@ -464,13 +473,208 @@
   </si>
   <si>
     <t>v7.0.0.88</t>
+  </si>
+  <si>
+    <t>ADRIATIC-Caribou-ES1199</t>
+  </si>
+  <si>
+    <t>ES1K34AABAA001199</t>
+  </si>
+  <si>
+    <t>ADRIATIC-Celtic-ES92</t>
+  </si>
+  <si>
+    <t>ES1K28AAAAA000092</t>
+  </si>
+  <si>
+    <t>ADRIATIC-Gator-EF462</t>
+  </si>
+  <si>
+    <t>EF1K43ABAAA000462</t>
+  </si>
+  <si>
+    <t>ADRIATIC-Grizzly-EF354</t>
+  </si>
+  <si>
+    <t>EF1K43ABCAA000354</t>
+  </si>
+  <si>
+    <t>ALLIANCE-LBGalveston-ES64</t>
+  </si>
+  <si>
+    <t>ES1K26AAAAA000064</t>
+  </si>
+  <si>
+    <t>ALLIANCE-Rebel-EF446</t>
+  </si>
+  <si>
+    <t>EF1K43ABCAA000446</t>
+  </si>
+  <si>
+    <t>ALLIANCE-TritonExplorer-ES139</t>
+  </si>
+  <si>
+    <t>ES1K2AAAAAA000139</t>
+  </si>
+  <si>
+    <t>CANALBARGE-Demo-EF232</t>
+  </si>
+  <si>
+    <t>EF1K42ABBAA000232</t>
+  </si>
+  <si>
+    <t>CANALBARGE-SusanLStall-EF414</t>
+  </si>
+  <si>
+    <t>EF1K43ABBAA000414</t>
+  </si>
+  <si>
+    <t>GOMEX-VR282-ES168</t>
+  </si>
+  <si>
+    <t>ES1K2BAAAAA000168</t>
+  </si>
+  <si>
+    <t>GUICE-GOCosmos-ES183</t>
+  </si>
+  <si>
+    <t>ES1K2BAAAAA000183</t>
+  </si>
+  <si>
+    <t>KSM-CaptainJack-EF361</t>
+  </si>
+  <si>
+    <t>EF1K43ABCAA000361</t>
+  </si>
+  <si>
+    <t>LMI-IvySteiner-EF343</t>
+  </si>
+  <si>
+    <t>EF1K43ABCAA000343</t>
+  </si>
+  <si>
+    <t>MAERSK-AllianceStLouis-ES1216</t>
+  </si>
+  <si>
+    <t>ES1K34AABAA001216</t>
+  </si>
+  <si>
+    <t>MARQUETTE-MissEllieCate-EF168</t>
+  </si>
+  <si>
+    <t>EF1K3AABBAA000168</t>
+  </si>
+  <si>
+    <t>ODYSSEA-Valor-EA47</t>
+  </si>
+  <si>
+    <t>SK1K31AABAA002013</t>
+  </si>
+  <si>
+    <t>SEABULK-Athena-ES1220</t>
+  </si>
+  <si>
+    <t>ES1K34AABAA001220</t>
+  </si>
+  <si>
+    <t>SEABULK-Cherokee-ES47</t>
+  </si>
+  <si>
+    <t>ES1K25AAAAA000047</t>
+  </si>
+  <si>
+    <t>SEABULK-Texas-ES1222</t>
+  </si>
+  <si>
+    <t>ES1K34AABAA001222</t>
+  </si>
+  <si>
+    <t>SEABULK-Thor-ES1218</t>
+  </si>
+  <si>
+    <t>ES1K34AABAA001218</t>
+  </si>
+  <si>
+    <t>SHOREOFFSHORE-DBHulk-ES146</t>
+  </si>
+  <si>
+    <t>ES1K2BAAAAA000146</t>
+  </si>
+  <si>
+    <t>SHOREOFFSHORE-DBPerformance-EF238</t>
+  </si>
+  <si>
+    <t>EF1K42ABBAA000238</t>
+  </si>
+  <si>
+    <t>SHOREOFFSHORE-DBPerformance-ES158</t>
+  </si>
+  <si>
+    <t>ES1K2BAAAAA000158</t>
+  </si>
+  <si>
+    <t>SHOREOFFSHORE-DBThor-ES1239</t>
+  </si>
+  <si>
+    <t>ES1K34AABAA001239</t>
+  </si>
+  <si>
+    <t>TECHNIP-OlympicChallenger-ES69</t>
+  </si>
+  <si>
+    <t>ES1K27AAAAA000069</t>
+  </si>
+  <si>
+    <t>USSHIPPING-CorpusChristi-ES135</t>
+  </si>
+  <si>
+    <t>ES1K2AAAAAA000135</t>
+  </si>
+  <si>
+    <t>VIASAT-BRSSRDOFFICE-ES155</t>
+  </si>
+  <si>
+    <t>ES1K2BAAAAA000155</t>
+  </si>
+  <si>
+    <t>BlueTide Communications</t>
+  </si>
+  <si>
+    <t>v.7.1.0.110</t>
+  </si>
+  <si>
+    <t>v7.1.0.111</t>
+  </si>
+  <si>
+    <t>BTC-HQ-HUB-ES41</t>
+  </si>
+  <si>
+    <t>BTC-BlueTide-ES124</t>
+  </si>
+  <si>
+    <t>ALLIANCE-ALLIANCE-I-EF334</t>
+  </si>
+  <si>
+    <t>BTC-EdgeFit-EF139</t>
+  </si>
+  <si>
+    <t>LABORDE-CaptWoodrow-EF340</t>
+  </si>
+  <si>
+    <t>Jason Electronics</t>
+  </si>
+  <si>
+    <t>Philippa Piraya</t>
+  </si>
+  <si>
+    <t>Wonderful test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +700,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF45464E"/>
+      <name val="Inter"/>
     </font>
     <font>
       <sz val="11"/>
@@ -550,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,6 +774,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -875,16 +1102,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15FDC01-90D1-4346-966F-72AF0F19B923}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="3" width="25.90625" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="26.1796875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -3605,7 +3833,7 @@
         <v>22.464000000000002</v>
       </c>
       <c r="G109">
-        <f t="shared" ref="G109:G130" si="3">ROUND((F109/D109)*100,1)</f>
+        <f t="shared" ref="G109:G164" si="3">ROUND((F109/D109)*100,1)</f>
         <v>98</v>
       </c>
     </row>
@@ -3626,7 +3854,7 @@
         <v>41.896999999999998</v>
       </c>
       <c r="F110">
-        <f t="shared" ref="F110:F130" si="4">D110-E110</f>
+        <f t="shared" ref="F110:F164" si="4">D110-E110</f>
         <v>8.2169999999999987</v>
       </c>
       <c r="G110">
@@ -3738,7 +3966,7 @@
       <c r="A115" t="s">
         <v>92</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C115" t="s">
@@ -3763,7 +3991,7 @@
       <c r="A116" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C116" t="s">
@@ -3788,7 +4016,7 @@
       <c r="A117" t="s">
         <v>92</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C117" t="s">
@@ -3813,7 +4041,7 @@
       <c r="A118" t="s">
         <v>92</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C118" t="s">
@@ -3838,7 +4066,7 @@
       <c r="A119" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C119" t="s">
@@ -3863,7 +4091,7 @@
       <c r="A120" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C120" t="s">
@@ -3888,7 +4116,7 @@
       <c r="A121" t="s">
         <v>92</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C121" t="s">
@@ -3913,7 +4141,7 @@
       <c r="A122" t="s">
         <v>92</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C122" t="s">
@@ -3938,7 +4166,7 @@
       <c r="A123" t="s">
         <v>92</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C123" t="s">
@@ -3963,7 +4191,7 @@
       <c r="A124" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C124" t="s">
@@ -3988,7 +4216,7 @@
       <c r="A125" t="s">
         <v>92</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C125" t="s">
@@ -4013,7 +4241,7 @@
       <c r="A126" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C126" t="s">
@@ -4038,7 +4266,7 @@
       <c r="A127" t="s">
         <v>92</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C127" t="s">
@@ -4063,7 +4291,7 @@
       <c r="A128" t="s">
         <v>92</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C128" t="s">
@@ -4088,7 +4316,7 @@
       <c r="A129" t="s">
         <v>92</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C129" t="s">
@@ -4113,7 +4341,7 @@
       <c r="A130" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C130" t="s">
@@ -4132,6 +4360,856 @@
       <c r="G130">
         <f t="shared" si="3"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15" thickBot="1">
+      <c r="A131" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>552.726</v>
+      </c>
+      <c r="E131">
+        <v>353.56799999999998</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="4"/>
+        <v>199.15800000000002</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15" thickBot="1">
+      <c r="A132" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>1061.575</v>
+      </c>
+      <c r="E132">
+        <v>989.20100000000002</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="4"/>
+        <v>72.374000000000024</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="3"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" thickBot="1">
+      <c r="A133" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>100.788</v>
+      </c>
+      <c r="E133">
+        <v>96.59</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>4.1979999999999933</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15" thickBot="1">
+      <c r="A134" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>124.785</v>
+      </c>
+      <c r="E134">
+        <v>124.682</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="4"/>
+        <v>0.10299999999999443</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" thickBot="1">
+      <c r="A135" t="s">
+        <v>200</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>1701.367</v>
+      </c>
+      <c r="E135">
+        <v>1667.903</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>33.463999999999942</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" thickBot="1">
+      <c r="A136" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="4"/>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A137" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>1478.595</v>
+      </c>
+      <c r="E137">
+        <v>1487.3979999999999</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>-8.8029999999998836</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1">
+      <c r="A138" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <v>48.268999999999998</v>
+      </c>
+      <c r="E138">
+        <v>46.902000000000001</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>1.3669999999999973</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A139" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139">
+        <v>2246.2469999999998</v>
+      </c>
+      <c r="E139">
+        <v>2123.4989999999998</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>122.74800000000005</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15" thickBot="1">
+      <c r="A140" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>224.60599999999999</v>
+      </c>
+      <c r="E140">
+        <v>217.054</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>7.5519999999999925</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="3"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15" thickBot="1">
+      <c r="A141" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>439.08499999999998</v>
+      </c>
+      <c r="E141">
+        <v>431.83699999999999</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>7.2479999999999905</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15" thickBot="1">
+      <c r="A142" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>5.4889999999999999</v>
+      </c>
+      <c r="E142">
+        <v>4.9539999999999997</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>0.53500000000000014</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="3"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" thickBot="1">
+      <c r="A143" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143">
+        <v>181.65600000000001</v>
+      </c>
+      <c r="E143">
+        <v>178.83099999999999</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>2.8250000000000171</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A144" t="s">
+        <v>200</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>2409.2330000000002</v>
+      </c>
+      <c r="E144">
+        <v>2334.0650000000001</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>75.16800000000012</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A145" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>40.753</v>
+      </c>
+      <c r="E145">
+        <v>34.823</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>5.93</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="3"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15" thickBot="1">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>1053.047</v>
+      </c>
+      <c r="E146">
+        <v>885.84199999999998</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="4"/>
+        <v>167.20500000000004</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="3"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15" thickBot="1">
+      <c r="A147" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147">
+        <v>1270.046</v>
+      </c>
+      <c r="E147">
+        <v>1275.5309999999999</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>-5.4849999999999</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="3"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15" thickBot="1">
+      <c r="A148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148">
+        <v>1433.5409999999999</v>
+      </c>
+      <c r="E148">
+        <v>1344.162</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>89.378999999999905</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="3"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15" thickBot="1">
+      <c r="A149" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>1987.3489999999999</v>
+      </c>
+      <c r="E149">
+        <v>1935.816</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>51.532999999999902</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15" thickBot="1">
+      <c r="A150" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>8389.01</v>
+      </c>
+      <c r="E150">
+        <v>2886.4920000000002</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>5502.518</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="3"/>
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>3740.8580000000002</v>
+      </c>
+      <c r="E151">
+        <v>3549.8319999999999</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>191.02600000000029</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A152" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152">
+        <v>1682.5260000000001</v>
+      </c>
+      <c r="E152">
+        <v>1596.1959999999999</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="4"/>
+        <v>86.330000000000155</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A153" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>1826.5519999999999</v>
+      </c>
+      <c r="E153">
+        <v>1812.048</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="4"/>
+        <v>14.503999999999905</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G154" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A155" t="s">
+        <v>200</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>7350.2579999999998</v>
+      </c>
+      <c r="E155">
+        <v>3921.8960000000002</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="4"/>
+        <v>3428.3619999999996</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="3"/>
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A156" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <v>1010.937</v>
+      </c>
+      <c r="E156">
+        <v>949.43899999999996</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="4"/>
+        <v>61.498000000000047</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="3"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>13.055999999999999</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>13.055999999999999</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158">
+        <v>7.8840000000000003</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>7.8840000000000003</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C159" t="s">
+        <v>201</v>
+      </c>
+      <c r="D159">
+        <v>18.495000000000001</v>
+      </c>
+      <c r="E159">
+        <v>10.221</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="4"/>
+        <v>8.2740000000000009</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="3"/>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C160" t="s">
+        <v>202</v>
+      </c>
+      <c r="D160">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="4"/>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C161" t="s">
+        <v>202</v>
+      </c>
+      <c r="D161">
+        <v>103.229</v>
+      </c>
+      <c r="E161">
+        <v>14.358000000000001</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="4"/>
+        <v>88.870999999999995</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="3"/>
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="29">
+      <c r="A162" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C162" t="s">
+        <v>202</v>
+      </c>
+      <c r="D162">
+        <v>199.542</v>
+      </c>
+      <c r="E162">
+        <v>197.399</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>2.1430000000000007</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>208</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>57.637</v>
+      </c>
+      <c r="E163">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>53.457999999999998</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="3"/>
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" t="s">
+        <v>202</v>
+      </c>
+      <c r="D164">
+        <v>1.946</v>
+      </c>
+      <c r="E164">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="4"/>
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="3"/>
+        <v>79.3</v>
       </c>
     </row>
   </sheetData>
@@ -4142,112 +5220,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78240526-0115-4A2F-B3E4-9A897E84928C}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="B1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:A6"/>
+      <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2" ht="15" thickBot="1">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2" ht="15" thickBot="1">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="2:2" ht="15" thickBot="1">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:2" ht="15" thickBot="1">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="2:2" ht="15" thickBot="1">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:2" ht="15" thickBot="1">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:2" ht="15" thickBot="1">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="2:2" ht="15" thickBot="1">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="2:2" ht="15" thickBot="1">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="2:2" ht="15" thickBot="1">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="2:2" ht="15" thickBot="1">
-      <c r="B27" s="4"/>
+    <row r="1" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B1" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B11" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B12" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B13" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B14" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B15" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B16" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B17" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B18" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B19" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B20" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B21" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B22" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B23" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B24" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B25" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B26" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B27" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="28" spans="2:2" ht="15" thickBot="1">
       <c r="B28" s="4"/>
